--- a/projects/project6/data.xlsx
+++ b/projects/project6/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coe_user\Documents\CS575\projects\project6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CEC6F94-7A82-4E1B-B769-6B0C1E8CC1FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512BB2F7-83C1-4651-8824-D1E1EF686E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14520" yWindow="-16020" windowWidth="14400" windowHeight="7275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11745" yWindow="-11700" windowWidth="14400" windowHeight="7275" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,9 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId5"/>
-    <pivotCache cacheId="7" r:id="rId6"/>
-    <pivotCache cacheId="13" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="2" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1715,739 +1715,6 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>result2!$B$17</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>result2!$A$18:$A$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>65536</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>262144</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1048576</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4194304</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>result2!$B$18:$B$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>49.8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>227.77</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>191.66</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>367.64</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>834.36</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1143.42</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7604-4C87-B70D-5C89560F05ED}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>result2!$C$17</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>result2!$A$18:$A$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>65536</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>262144</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1048576</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4194304</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>result2!$C$18:$C$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>35.28</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>208.93</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>248.98</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>514.87</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1361.35</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2461.02</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7604-4C87-B70D-5C89560F05ED}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>result2!$D$17</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>64</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>result2!$A$18:$A$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>65536</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>262144</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1048576</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4194304</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>result2!$D$18:$D$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>47.99</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>210.41</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>241.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>369.51</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1557.35</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3428.21</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7604-4C87-B70D-5C89560F05ED}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>result2!$E$17</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>result2!$A$18:$A$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>65536</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>262144</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1048576</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4194304</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>result2!$E$18:$E$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>41.81</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>148.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>275.31</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>598.52</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1422.72</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3307.79</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-7604-4C87-B70D-5C89560F05ED}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>result2!$F$17</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>256</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>result2!$A$18:$A$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>65536</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>262144</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1048576</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4194304</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>result2!$F$18:$F$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>32.619999999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>221.13</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>236.37</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>345.68</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1318.08</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3402.59</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-7604-4C87-B70D-5C89560F05ED}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="192608624"/>
-        <c:axId val="192603632"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="192608624"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="192603632"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="192603632"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="192608624"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
               <c:f>result2!$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -3146,6 +2413,761 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.6479010809719491E-3"/>
+          <c:y val="0.92187445319335082"/>
+          <c:w val="0.99424798511412682"/>
+          <c:h val="7.8125546806649168E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>result2!$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>result2!$A$18:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4194304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>result2!$B$18:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>49.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>227.77</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>191.66</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>367.64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>834.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1143.42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7604-4C87-B70D-5C89560F05ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>result2!$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>result2!$A$18:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4194304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>result2!$C$18:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>35.28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>208.93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>248.98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>514.87</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1361.35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2461.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7604-4C87-B70D-5C89560F05ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>result2!$D$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>result2!$A$18:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4194304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>result2!$D$18:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>47.99</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>210.41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>241.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>369.51</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1557.35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3428.21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7604-4C87-B70D-5C89560F05ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>result2!$E$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>result2!$A$18:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4194304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>result2!$E$18:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>41.81</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>148.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>275.31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>598.52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1422.72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3307.79</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7604-4C87-B70D-5C89560F05ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>result2!$F$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>result2!$A$18:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4194304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>result2!$F$18:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32.619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>221.13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>236.37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>345.68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1318.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3402.59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7604-4C87-B70D-5C89560F05ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="192608624"/>
+        <c:axId val="192603632"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="192608624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4500000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="192603632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="192603632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="192608624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.5301982681527703E-2"/>
+          <c:y val="0.92187445319335082"/>
+          <c:w val="0.83709686566187536"/>
+          <c:h val="7.8125546806649168E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8271,7 +8293,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>216499</xdr:colOff>
+      <xdr:colOff>442764</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
@@ -8281,12 +8303,207 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF580ED8-5CB2-4215-A4D9-2AE39953F9C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>439876</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>562814</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28137</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C146219-1F17-45DF-BF32-3658025ED6FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6954976" y="2486025"/>
+          <a:ext cx="1342138" cy="256737"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>DATASIZE</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219674</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>116876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>640473</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12101</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A40C8D14-8862-4504-A492-CE4F75FD3A1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="4121011" y="1120914"/>
+          <a:ext cx="1704975" cy="420799"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>MegaPointsProcessed/Sec</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="10" name="Group 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F2A6B4A-8062-4275-9520-86C1EC63301B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BB160D2-BF10-4327-AB4C-B65FE305CDA9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8294,10 +8511,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4763099" y="171450"/>
-          <a:ext cx="4801588" cy="2743200"/>
-          <a:chOff x="6893524" y="628650"/>
-          <a:chExt cx="4804763" cy="2743200"/>
+          <a:off x="5324475" y="3228975"/>
+          <a:ext cx="4810125" cy="2743200"/>
+          <a:chOff x="5321300" y="3228975"/>
+          <a:chExt cx="4810125" cy="2743200"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:graphicFrame macro="">
@@ -8305,19 +8522,21 @@
           <xdr:cNvPr id="3" name="Chart 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF580ED8-5CB2-4215-A4D9-2AE39953F9C9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E348A584-B6DA-44C4-A63E-4A3379F089B2}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvGraphicFramePr/>
+          <xdr:cNvGraphicFramePr>
+            <a:graphicFrameLocks/>
+          </xdr:cNvGraphicFramePr>
         </xdr:nvGraphicFramePr>
         <xdr:xfrm>
-          <a:off x="7116762" y="628650"/>
+          <a:off x="5549900" y="3228975"/>
           <a:ext cx="4581525" cy="2743200"/>
         </xdr:xfrm>
         <a:graphic>
           <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           </a:graphicData>
         </a:graphic>
       </xdr:graphicFrame>
@@ -8326,7 +8545,7 @@
           <xdr:cNvPr id="5" name="TextBox 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C146219-1F17-45DF-BF32-3658025ED6FD}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFCE2779-A03A-4C5E-9A8A-1D3FDFB4883B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8334,8 +8553,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="9086850" y="2943225"/>
-            <a:ext cx="1343025" cy="256737"/>
+            <a:off x="7554452" y="5511800"/>
+            <a:ext cx="1332613" cy="259912"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -8358,23 +8577,23 @@
         </xdr:style>
         <xdr:txBody>
           <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-            <a:spAutoFit/>
+            <a:noAutofit/>
           </a:bodyPr>
           <a:lstStyle/>
           <a:p>
             <a:r>
               <a:rPr lang="en-US" sz="1000"/>
-              <a:t>DATASIZE</a:t>
+              <a:t>LOCALSIZE</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="TextBox 8">
+          <xdr:cNvPr id="7" name="TextBox 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A40C8D14-8862-4504-A492-CE4F75FD3A1F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AAF2182-1017-4077-8302-DF7594800D05}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8382,8 +8601,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm rot="16200000">
-            <a:off x="6251575" y="1577975"/>
-            <a:ext cx="1704975" cy="421077"/>
+            <a:off x="4682387" y="4210788"/>
+            <a:ext cx="1701800" cy="423974"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -8406,7 +8625,7 @@
         </xdr:style>
         <xdr:txBody>
           <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-            <a:spAutoFit/>
+            <a:noAutofit/>
           </a:bodyPr>
           <a:lstStyle/>
           <a:p>
@@ -8448,83 +8667,184 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>696912</xdr:colOff>
+      <xdr:colOff>466725</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>255587</xdr:colOff>
+      <xdr:colOff>258762</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="9" name="Group 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38DD792E-CC0F-4E57-95A7-3A2104129D79}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92E25247-7A87-4E3B-99BF-F6486A8C20CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E348A584-B6DA-44C4-A63E-4A3379F089B2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5321300" y="352425"/>
+          <a:ext cx="4811712" cy="2743200"/>
+          <a:chOff x="5324475" y="352425"/>
+          <a:chExt cx="4811712" cy="2743200"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="2" name="Chart 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38DD792E-CC0F-4E57-95A7-3A2104129D79}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr/>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="5551487" y="352425"/>
+          <a:ext cx="4584700" cy="2743200"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="TextBox 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66E98627-129A-43CA-92E9-4F6C3032D2A6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000">
+            <a:off x="4680799" y="1398727"/>
+            <a:ext cx="1704975" cy="417624"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>MegaPointsProcessed/Sec</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="TextBox 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6513BE32-9347-4B08-8DEC-22490DF20F9A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7560802" y="2628900"/>
+            <a:ext cx="1332613" cy="256737"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000"/>
+              <a:t>DATASIZE</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9186,7 +9506,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8F7DC105-E428-4A9C-BDD5-64E7272E98CD}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8F7DC105-E428-4A9C-BDD5-64E7272E98CD}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -9277,7 +9597,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4369D0C3-4809-4D0C-8CF6-3FF2A7823014}" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4369D0C3-4809-4D0C-8CF6-3FF2A7823014}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -9368,7 +9688,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CE2CDC97-C7BA-45B3-93F1-87E51E22399A}" name="PivotTable5" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CE2CDC97-C7BA-45B3-93F1-87E51E22399A}" name="PivotTable5" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -9723,7 +10043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
@@ -10647,7 +10967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{465B93A3-F61F-428F-A610-A1718BC436DA}">
   <dimension ref="A3:G21"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
@@ -10999,8 +11319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B5A560-40A6-4CBE-B677-0FFF7BCE4367}">
   <dimension ref="A3:G23"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
